--- a/moneos_2020/tabellen/010_Inleiding_tabellen.xlsx
+++ b/moneos_2020/tabellen/010_Inleiding_tabellen.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="56">
   <si>
     <t xml:space="preserve">Niveau 2 </t>
   </si>
@@ -138,9 +138,6 @@
     <t>Dijle</t>
   </si>
   <si>
-    <t>GetijdeDijle_GetijdeZenne</t>
-  </si>
-  <si>
     <t>Zoet zijrivier</t>
   </si>
   <si>
@@ -178,6 +175,15 @@
   </si>
   <si>
     <t>comp 14</t>
+  </si>
+  <si>
+    <t>n.v.t. *</t>
+  </si>
+  <si>
+    <t>GetijdeDijle + GetijdeZenne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Niveau 3 </t>
   </si>
 </sst>
 </file>
@@ -519,7 +525,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G21"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -709,40 +715,40 @@
         <v>39</v>
       </c>
       <c r="D16" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" t="s">
         <v>40</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
+        <v>40</v>
+      </c>
+      <c r="G16" t="s">
         <v>41</v>
-      </c>
-      <c r="F16" t="s">
-        <v>41</v>
-      </c>
-      <c r="G16" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" t="s">
         <v>45</v>
       </c>
-      <c r="C19" t="s">
-        <v>46</v>
-      </c>
       <c r="D19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E19" t="s">
         <v>27</v>
@@ -751,38 +757,38 @@
         <v>27</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" t="s">
         <v>47</v>
-      </c>
-      <c r="B20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C20" t="s">
-        <v>48</v>
       </c>
       <c r="D20" t="s">
         <v>31</v>
       </c>
       <c r="E20" t="s">
+        <v>48</v>
+      </c>
+      <c r="F20" t="s">
         <v>49</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>50</v>
-      </c>
-      <c r="G20" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -795,7 +801,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -814,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
@@ -978,7 +984,7 @@
         <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -1165,16 +1171,16 @@
         <v>39</v>
       </c>
       <c r="D16" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" t="s">
         <v>40</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
+        <v>40</v>
+      </c>
+      <c r="G16" t="s">
         <v>41</v>
-      </c>
-      <c r="F16" t="s">
-        <v>41</v>
-      </c>
-      <c r="G16" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -1185,19 +1191,19 @@
         <v>37</v>
       </c>
       <c r="C17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D17" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" t="s">
         <v>40</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
+        <v>40</v>
+      </c>
+      <c r="G17" t="s">
         <v>41</v>
-      </c>
-      <c r="F17" t="s">
-        <v>41</v>
-      </c>
-      <c r="G17" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -1208,19 +1214,19 @@
         <v>37</v>
       </c>
       <c r="C18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E18" t="s">
+        <v>40</v>
+      </c>
+      <c r="F18" t="s">
+        <v>40</v>
+      </c>
+      <c r="G18" t="s">
         <v>41</v>
-      </c>
-      <c r="F18" t="s">
-        <v>41</v>
-      </c>
-      <c r="G18" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -1228,13 +1234,13 @@
         <v>36</v>
       </c>
       <c r="B19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" t="s">
         <v>45</v>
       </c>
-      <c r="C19" t="s">
-        <v>46</v>
-      </c>
       <c r="D19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E19" t="s">
         <v>27</v>
@@ -1243,53 +1249,53 @@
         <v>27</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" t="s">
         <v>47</v>
-      </c>
-      <c r="B20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C20" t="s">
-        <v>48</v>
       </c>
       <c r="D20" t="s">
         <v>31</v>
       </c>
       <c r="E20" t="s">
+        <v>53</v>
+      </c>
+      <c r="F20" t="s">
         <v>49</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>50</v>
-      </c>
-      <c r="G20" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B21" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D21" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="E21" t="s">
+        <v>53</v>
+      </c>
+      <c r="F21" t="s">
         <v>49</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>50</v>
-      </c>
-      <c r="G21" t="s">
-        <v>51</v>
       </c>
     </row>
   </sheetData>
